--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50463587512244</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N2">
-        <v>1.50463587512244</v>
+        <v>5.626702</v>
       </c>
       <c r="O2">
-        <v>0.9059785099995814</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P2">
-        <v>0.9059785099995814</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q2">
-        <v>61.67775349025631</v>
+        <v>77.87281670647067</v>
       </c>
       <c r="R2">
-        <v>61.67775349025631</v>
+        <v>700.855350358236</v>
       </c>
       <c r="S2">
-        <v>0.6812710094662155</v>
+        <v>0.6682122676694364</v>
       </c>
       <c r="T2">
-        <v>0.6812710094662155</v>
+        <v>0.7170826956308033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.156149517152632</v>
+        <v>0.010998</v>
       </c>
       <c r="N3">
-        <v>0.156149517152632</v>
+        <v>0.032994</v>
       </c>
       <c r="O3">
-        <v>0.09402149000041862</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P3">
-        <v>0.09402149000041862</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q3">
-        <v>6.400851917596918</v>
+        <v>0.4566326267880001</v>
       </c>
       <c r="R3">
-        <v>6.400851917596918</v>
+        <v>4.109693641092</v>
       </c>
       <c r="S3">
-        <v>0.07070158364366996</v>
+        <v>0.003918280292698171</v>
       </c>
       <c r="T3">
-        <v>0.07070158364366996</v>
+        <v>0.004204847965938613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50463587512244</v>
+        <v>0.163866</v>
       </c>
       <c r="N4">
-        <v>1.50463587512244</v>
+        <v>0.327732</v>
       </c>
       <c r="O4">
-        <v>0.9059785099995814</v>
+        <v>0.07991781891745053</v>
       </c>
       <c r="P4">
-        <v>0.9059785099995814</v>
+        <v>0.05473669161449624</v>
       </c>
       <c r="Q4">
-        <v>10.14003277850165</v>
+        <v>6.803651756796001</v>
       </c>
       <c r="R4">
-        <v>10.14003277850165</v>
+        <v>40.821910540776</v>
       </c>
       <c r="S4">
-        <v>0.1120032746997126</v>
+        <v>0.05838088001848322</v>
       </c>
       <c r="T4">
-        <v>0.1120032746997126</v>
+        <v>0.04176708594208019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156149517152632</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N5">
-        <v>0.156149517152632</v>
+        <v>5.626702</v>
       </c>
       <c r="O5">
-        <v>0.09402149000041862</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P5">
-        <v>0.09402149000041862</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q5">
-        <v>1.052321859696485</v>
+        <v>13.47385002939756</v>
       </c>
       <c r="R5">
-        <v>1.052321859696485</v>
+        <v>121.264650264578</v>
       </c>
       <c r="S5">
-        <v>0.01162358119531779</v>
+        <v>0.1156166203197518</v>
       </c>
       <c r="T5">
-        <v>0.01162358119531779</v>
+        <v>0.1240723670754643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J6">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.50463587512244</v>
+        <v>0.010998</v>
       </c>
       <c r="N6">
-        <v>1.50463587512244</v>
+        <v>0.032994</v>
       </c>
       <c r="O6">
-        <v>0.9059785099995814</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P6">
-        <v>0.9059785099995814</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q6">
-        <v>0.2621783791201022</v>
+        <v>0.07900830857400001</v>
       </c>
       <c r="R6">
-        <v>0.2621783791201022</v>
+        <v>0.7110747771660001</v>
       </c>
       <c r="S6">
-        <v>0.002895931172843142</v>
+        <v>0.0006779557138142185</v>
       </c>
       <c r="T6">
-        <v>0.002895931172843142</v>
+        <v>0.0007275387392628701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.156149517152632</v>
+        <v>0.163866</v>
       </c>
       <c r="N7">
-        <v>0.156149517152632</v>
+        <v>0.327732</v>
       </c>
       <c r="O7">
-        <v>0.09402149000041862</v>
+        <v>0.07991781891745053</v>
       </c>
       <c r="P7">
-        <v>0.09402149000041862</v>
+        <v>0.05473669161449624</v>
       </c>
       <c r="Q7">
-        <v>0.02720859444091896</v>
+        <v>1.177193625458</v>
       </c>
       <c r="R7">
-        <v>0.02720859444091896</v>
+        <v>7.063161752748001</v>
       </c>
       <c r="S7">
-        <v>0.0003005366692522297</v>
+        <v>0.0101012812329406</v>
       </c>
       <c r="T7">
-        <v>0.0003005366692522297</v>
+        <v>0.007226699584654754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.524926738560301</v>
+        <v>0.229894</v>
       </c>
       <c r="H8">
-        <v>0.524926738560301</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I8">
-        <v>0.009629496357662767</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J8">
-        <v>0.009629496357662767</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.50463587512244</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N8">
-        <v>1.50463587512244</v>
+        <v>5.626702</v>
       </c>
       <c r="O8">
-        <v>0.9059785099995814</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P8">
-        <v>0.9059785099995814</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q8">
-        <v>0.7898236026488468</v>
+        <v>0.4311816765293333</v>
       </c>
       <c r="R8">
-        <v>0.7898236026488468</v>
+        <v>3.880635088764</v>
       </c>
       <c r="S8">
-        <v>0.008724116762161709</v>
+        <v>0.003699890385848011</v>
       </c>
       <c r="T8">
-        <v>0.008724116762161709</v>
+        <v>0.0039704858767048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.524926738560301</v>
+        <v>0.229894</v>
       </c>
       <c r="H9">
-        <v>0.524926738560301</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I9">
-        <v>0.009629496357662767</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J9">
-        <v>0.009629496357662767</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.156149517152632</v>
+        <v>0.010998</v>
       </c>
       <c r="N9">
-        <v>0.156149517152632</v>
+        <v>0.032994</v>
       </c>
       <c r="O9">
-        <v>0.09402149000041862</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P9">
-        <v>0.09402149000041862</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q9">
-        <v>0.0819670567666969</v>
+        <v>0.002528374212</v>
       </c>
       <c r="R9">
-        <v>0.0819670567666969</v>
+        <v>0.022755367908</v>
       </c>
       <c r="S9">
-        <v>0.0009053795955010574</v>
+        <v>2.169551246727999E-05</v>
       </c>
       <c r="T9">
-        <v>0.0009053795955010574</v>
+        <v>2.328223727078459E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.08219597134768</v>
+        <v>0.229894</v>
       </c>
       <c r="H10">
-        <v>6.08219597134768</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I10">
-        <v>0.1115745867953259</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J10">
-        <v>0.1115745867953259</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.50463587512244</v>
+        <v>0.163866</v>
       </c>
       <c r="N10">
-        <v>1.50463587512244</v>
+        <v>0.327732</v>
       </c>
       <c r="O10">
-        <v>0.9059785099995814</v>
+        <v>0.07991781891745053</v>
       </c>
       <c r="P10">
-        <v>0.9059785099995814</v>
+        <v>0.05473669161449624</v>
       </c>
       <c r="Q10">
-        <v>9.151490258014896</v>
+        <v>0.037671810204</v>
       </c>
       <c r="R10">
-        <v>9.151490258014896</v>
+        <v>0.226030861224</v>
       </c>
       <c r="S10">
-        <v>0.1010841778986483</v>
+        <v>0.0003232548505149394</v>
       </c>
       <c r="T10">
-        <v>0.1010841778986483</v>
+        <v>0.0002312642960910703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.893011</v>
+      </c>
+      <c r="I11">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J11">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.626702</v>
+      </c>
+      <c r="O11">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P11">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q11">
+        <v>1.183489864413555</v>
+      </c>
+      <c r="R11">
+        <v>10.651408779722</v>
+      </c>
+      <c r="S11">
+        <v>0.01015530809736158</v>
+      </c>
+      <c r="T11">
+        <v>0.01089802755465103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.893011</v>
+      </c>
+      <c r="I12">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J12">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.010998</v>
+      </c>
+      <c r="N12">
+        <v>0.032994</v>
+      </c>
+      <c r="O12">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P12">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q12">
+        <v>0.006939778326</v>
+      </c>
+      <c r="R12">
+        <v>0.06245800493400001</v>
+      </c>
+      <c r="S12">
+        <v>5.954895698481064E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.390413445356732E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="H11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="I11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="J11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="N11">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="O11">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="P11">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="Q11">
-        <v>0.9497319641536238</v>
-      </c>
-      <c r="R11">
-        <v>0.9497319641536238</v>
-      </c>
-      <c r="S11">
-        <v>0.01049040889667757</v>
-      </c>
-      <c r="T11">
-        <v>0.01049040889667757</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.893011</v>
+      </c>
+      <c r="I13">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J13">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.163866</v>
+      </c>
+      <c r="N13">
+        <v>0.327732</v>
+      </c>
+      <c r="O13">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P13">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q13">
+        <v>0.103400046842</v>
+      </c>
+      <c r="R13">
+        <v>0.6204002810520001</v>
+      </c>
+      <c r="S13">
+        <v>0.0008872567180644644</v>
+      </c>
+      <c r="T13">
+        <v>0.0006347647994403989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.2719705</v>
+      </c>
+      <c r="H14">
+        <v>14.543941</v>
+      </c>
+      <c r="I14">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J14">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.626702</v>
+      </c>
+      <c r="O14">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P14">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q14">
+        <v>13.63907031876367</v>
+      </c>
+      <c r="R14">
+        <v>81.834421912582</v>
+      </c>
+      <c r="S14">
+        <v>0.117034345129148</v>
+      </c>
+      <c r="T14">
+        <v>0.08372918581625718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.2719705</v>
+      </c>
+      <c r="H15">
+        <v>14.543941</v>
+      </c>
+      <c r="I15">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J15">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.010998</v>
+      </c>
+      <c r="N15">
+        <v>0.032994</v>
+      </c>
+      <c r="O15">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P15">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q15">
+        <v>0.07997713155900001</v>
+      </c>
+      <c r="R15">
+        <v>0.4798627893540001</v>
+      </c>
+      <c r="S15">
+        <v>0.0006862690050390282</v>
+      </c>
+      <c r="T15">
+        <v>0.0004909733546972258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.2719705</v>
+      </c>
+      <c r="H16">
+        <v>14.543941</v>
+      </c>
+      <c r="I16">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J16">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.163866</v>
+      </c>
+      <c r="N16">
+        <v>0.327732</v>
+      </c>
+      <c r="O16">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P16">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q16">
+        <v>1.191628717953</v>
+      </c>
+      <c r="R16">
+        <v>4.766514871812</v>
+      </c>
+      <c r="S16">
+        <v>0.0102251460974473</v>
+      </c>
+      <c r="T16">
+        <v>0.004876876992229836</v>
       </c>
     </row>
   </sheetData>
